--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1313728.481772296</v>
+        <v>1311434.886315703</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>72.94942429078246</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>279.771324442468</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247047</v>
@@ -716,16 +716,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>98.05137578963492</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>282.0179652240194</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>37.90969376287409</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>197.8131590386675</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>17.25588147840212</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>150.2062474346973</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>242.8528437613041</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>171.1167978045351</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>67.24416875037157</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,10 +1303,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>52.07852635745805</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>120.1447214650597</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710086</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819337</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>41.74133133758799</v>
+        <v>99.97427419834261</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>43.73846614325559</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4.019807611472922</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>110.0177171766856</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936192</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>80.11763046889914</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>110.0177171766856</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986326</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>9.146142788179368</v>
+        <v>0.8253826161861753</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,10 +3196,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>115.7063133373723</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>95.12712756824166</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>108.9065924712584</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>132.6315337216687</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4138,16 +4138,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>4.019807611472022</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1585.174086820818</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="C2" t="n">
-        <v>1585.174086820818</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>1226.908388214068</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.31341879663</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1975.31341879663</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1585.174086820818</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4401,10 +4401,10 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
@@ -4413,19 +4413,19 @@
         <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>801.944955774447</v>
+        <v>638.3296170496761</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330612</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.1598801503962</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="C4" t="n">
-        <v>199.1598801503962</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1434.820919863176</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1434.820919863176</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1145.702582367014</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>891.0180941611266</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>601.600924124166</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="X4" t="n">
-        <v>601.600924124166</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.8083449806359</v>
+        <v>388.1694341876314</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1899.13013587303</v>
+        <v>1681.836054204827</v>
       </c>
       <c r="C5" t="n">
-        <v>1530.167618932618</v>
+        <v>1312.873537264416</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>954.6078386576651</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276231</v>
+        <v>568.8195860594208</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>561.8740853102173</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>146.8016351552138</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3015.503881380036</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3015.503881380036</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3015.503881380036</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2662.735226109921</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2289.269467848841</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y5" t="n">
-        <v>1899.13013587303</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="6">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>1494.054724415577</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W7" t="n">
-        <v>1494.054724415577</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2175.400891308157</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.438374367746</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.172675760995</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E8" t="n">
-        <v>1062.384423162751</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
-        <v>651.3985183731436</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.605821609171</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X8" t="n">
-        <v>2952.140063348091</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.000731372279</v>
+        <v>1899.13013587303</v>
       </c>
     </row>
     <row r="9">
@@ -4875,22 +4875,22 @@
         <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>431.4421061205826</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>433.7094726336153</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>286.8195251357049</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G10" t="n">
-        <v>119.1166885104239</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>652.2346852641127</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>431.4421061205826</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362687</v>
@@ -5036,7 +5036,7 @@
         <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
@@ -5072,19 +5072,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>261.012762333092</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797191</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611464</v>
@@ -5276,25 +5276,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852257</v>
@@ -5321,7 +5321,7 @@
         <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452603</v>
+        <v>739.5354516872154</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718124</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.528408326419</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876697</v>
+        <v>513.8536007400758</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8993044876697</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="D16" t="n">
-        <v>430.782665075334</v>
+        <v>194.8007783998331</v>
       </c>
       <c r="E16" t="n">
-        <v>282.8695714929408</v>
+        <v>194.8007783998331</v>
       </c>
       <c r="F16" t="n">
-        <v>135.9796239950305</v>
+        <v>194.8007783998331</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797191</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614396</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179095</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,16 +5501,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111718</v>
@@ -5519,43 +5519,43 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828446</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5741,10 +5741,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5753,46 +5753,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>513.8536007400712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,52 +5984,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>719.5738700011939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2183.181349771631</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1894.106123115829</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1639.421634909942</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1350.004464872981</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1122.014913974964</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>901.2223348314336</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,37 +6206,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,19 +6361,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>513.8536007400712</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,25 +6598,25 @@
         <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>411.9631215597572</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>261.8464821474214</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>261.8464821474214</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6692,19 +6692,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6716,31 +6716,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>580.8993044876688</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>580.8993044876688</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>580.8993044876688</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7178,13 +7178,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>516.389687887188</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>369.4997403892776</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8061,10 +8061,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>211.0329012241554</v>
+        <v>45.76488231024547</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154988</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>65.54986409392984</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>166.0397529241844</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>123.7828069546809</v>
+        <v>65.54986409392623</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>104.8770068749568</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>43.2652634529462</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>144.5956654067394</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>35.40333084624569</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>43.26526345294992</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>137.2878198583891</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>35.40333084624569</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24683,7 +24683,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>136.2749052347519</v>
+        <v>144.5956654067451</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24971,7 +24971,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,10 +25084,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25160,7 +25160,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>50.29392045468958</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>46.459688448232</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>39.70888054695399</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>32.8926045706001</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,16 +26026,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>144.5956654067403</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>937367.749118692</v>
+        <v>937367.7491186921</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>937367.7491186921</v>
+        <v>937367.7491186919</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>937367.7491186919</v>
+        <v>937367.749118692</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>937367.749118692</v>
+        <v>937367.7491186918</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>937367.7491186919</v>
+        <v>937367.7491186918</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>937367.749118692</v>
+        <v>937367.7491186919</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>937367.7491186921</v>
+        <v>937367.7491186919</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>937367.7491186921</v>
+        <v>937367.7491186919</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>937367.749118692</v>
+        <v>937367.7491186919</v>
       </c>
     </row>
   </sheetData>
@@ -26317,7 +26317,7 @@
         <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
         <v>484287.9598140036</v>
@@ -26326,16 +26326,16 @@
         <v>484287.9598140036</v>
       </c>
       <c r="G2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="H2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="H2" t="n">
-        <v>484287.9598140037</v>
-      </c>
       <c r="I2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="J2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
         <v>484287.9598140036</v>
@@ -26344,16 +26344,16 @@
         <v>484287.9598140035</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140038</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="O2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140037</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.359841684869025e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605448</v>
+        <v>49110.09270605439</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.726386926748091e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,22 +26421,22 @@
         <v>89134.1790931202</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312017</v>
+        <v>89134.17909312012</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
+        <v>9947.144321768897</v>
+      </c>
+      <c r="G4" t="n">
         <v>9947.144321768899</v>
       </c>
-      <c r="G4" t="n">
-        <v>9947.144321768897</v>
-      </c>
       <c r="H4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.14432176885</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
@@ -26445,7 +26445,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
         <v>9947.144321768897</v>
@@ -26454,7 +26454,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26482,7 +26482,7 @@
         <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852994.9045044163</v>
+        <v>-852994.9045044165</v>
       </c>
       <c r="C6" t="n">
         <v>92118.20065195071</v>
       </c>
       <c r="D6" t="n">
-        <v>295556.9422640565</v>
+        <v>295556.9422640562</v>
       </c>
       <c r="E6" t="n">
-        <v>47805.82386097187</v>
+        <v>47771.08593553652</v>
       </c>
       <c r="F6" t="n">
-        <v>373218.2856683275</v>
+        <v>373183.5477428919</v>
       </c>
       <c r="G6" t="n">
-        <v>373218.2856683279</v>
+        <v>373183.5477428919</v>
       </c>
       <c r="H6" t="n">
-        <v>373218.2856683279</v>
+        <v>373183.5477428918</v>
       </c>
       <c r="I6" t="n">
-        <v>373218.2856683275</v>
+        <v>373183.5477428923</v>
       </c>
       <c r="J6" t="n">
-        <v>205613.1078583453</v>
+        <v>205578.3699329093</v>
       </c>
       <c r="K6" t="n">
-        <v>324108.1929622731</v>
+        <v>324073.4550368375</v>
       </c>
       <c r="L6" t="n">
-        <v>373218.2856683275</v>
+        <v>373183.5477428916</v>
       </c>
       <c r="M6" t="n">
-        <v>288163.2577328155</v>
+        <v>288128.5198073802</v>
       </c>
       <c r="N6" t="n">
-        <v>373218.2856683275</v>
+        <v>373183.5477428917</v>
       </c>
       <c r="O6" t="n">
-        <v>373218.2856683276</v>
+        <v>373183.5477428916</v>
       </c>
       <c r="P6" t="n">
-        <v>373218.2856683275</v>
+        <v>373183.5477428922</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26802,13 +26802,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,25 +26978,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>292.3234674802251</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>102.1590456297938</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>96.61108457210254</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>4.505033112571596</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>256.6980706244464</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>6.104811100952588</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>79.09653893143596</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>101.9313958891307</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>168.0688818921493</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>198.614302873934</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>100.0026523482563</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>92.67648855686274</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>3.582082778545252e-12</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-1.642779091942156e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28731,7 +28731,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2.827960088325199e-12</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29670,7 +29670,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31835,7 +31835,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,22 +31847,22 @@
         <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>613.2529048371018</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565758</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.6544928674244</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963271</v>
+        <v>302.3396059822662</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862124</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.6544928674244</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,34 +32312,34 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>195.7502366106269</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>499.3768644016562</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O24" t="n">
-        <v>461.1007071927452</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>181.9330708814852</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,16 +33497,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33518,10 +33518,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,28 +33734,28 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>698.850866879865</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,7 +33977,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>235.5705495535876</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34217,31 +34217,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>535.8585467435946</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>661.8411144019728</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34781,10 +34781,10 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>508.7132618620056</v>
+        <v>343.4452429480957</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
@@ -34793,10 +34793,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754089</v>
@@ -35495,22 +35495,22 @@
         <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>471.1188709150834</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121313</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164529</v>
+        <v>163.785226202392</v>
       </c>
       <c r="M15" t="n">
         <v>603.412613764194</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>61.77582919629669</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>368.0351523183229</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O24" t="n">
-        <v>318.5044627483008</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37166,10 +37166,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>556.7168329578467</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,7 +37625,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>92.97430510914316</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>393.2623022991502</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>519.7070804799545</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
